--- a/bom/v2/PocketTRS.xlsx
+++ b/bom/v2/PocketTRS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20364"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PocketTRS\bom\v2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80F5D33-906B-4A04-9FB7-FBD819DDB0CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,9 +346,6 @@
     <t>https://www.aliexpress.com/item/32761830818.html</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/32826749496.html</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/32700714989.html</t>
   </si>
   <si>
@@ -362,12 +365,15 @@
   </si>
   <si>
     <t>PocketTRS V2 BOM</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32787701604.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,7 +499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,9 +532,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,6 +584,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -736,29 +776,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="45.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
@@ -777,7 +817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -797,7 +837,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -817,7 +857,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -837,7 +877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -857,7 +897,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -877,7 +917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -897,7 +937,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -917,7 +957,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -937,7 +977,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -957,7 +997,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -977,7 +1017,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -997,7 +1037,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1017,7 +1057,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1037,7 +1077,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1097,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1077,7 +1117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1157,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1157,7 +1197,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1217,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1197,7 +1237,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1217,7 +1257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1237,7 +1277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1257,7 +1297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1297,7 +1337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1314,7 +1354,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1334,7 +1374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1354,7 +1394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1374,7 +1414,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1394,7 +1434,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1411,7 +1451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1425,7 +1465,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1439,7 +1479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1450,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1464,13 +1504,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" t="s">
         <v>113</v>
       </c>
-      <c r="F39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1481,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1495,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
         <v>113</v>
       </c>
-      <c r="F41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1512,33 +1552,33 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" t="s">
         <v>113</v>
       </c>
-      <c r="F42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
         <v>110</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G36" r:id="rId1"/>
-    <hyperlink ref="G37" r:id="rId2"/>
-    <hyperlink ref="G40" r:id="rId3"/>
-    <hyperlink ref="G38" r:id="rId4"/>
-    <hyperlink ref="G43" r:id="rId5"/>
+    <hyperlink ref="G36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G43" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G38" r:id="rId5" xr:uid="{E765F295-2778-409B-9795-3527C24CB394}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
